--- a/13_Функции поиска и подстановки данных/13.2 Прайс-лист ПРОСМОТР (исходные данные)_МОЙ.xlsx
+++ b/13_Функции поиска и подстановки данных/13.2 Прайс-лист ПРОСМОТР (исходные данные)_МОЙ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\УЧЁБА\EXCEL\Excel\13_Функции поиска и подстановки данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC0EB72-C526-4878-AFDC-61071B297F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C515C3-D1D3-466D-9BAC-C626044F7A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6101" uniqueCount="3057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6104" uniqueCount="3058">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -9840,7 +9840,10 @@
     <t>ПРОСМОТР</t>
   </si>
   <si>
-    <t>MSI P65 8RF-497RU Creator (9S7-16Q213-497</t>
+    <t>ИНДЕКС</t>
+  </si>
+  <si>
+    <t>ПОИСКПОЗ</t>
   </si>
 </sst>
 </file>
@@ -9851,7 +9854,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9860,13 +9863,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -9903,7 +9899,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -9920,13 +9916,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9935,18 +9951,24 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Заголовок 3" xfId="2" builtinId="18"/>
@@ -10240,8 +10262,8 @@
   </sheetPr>
   <dimension ref="A1:C3046"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A2213" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2227" sqref="B2227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43765,11 +43787,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F24A38-EC6C-4FEC-8B96-4F24C8A22A13}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -43778,56 +43800,71 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>3055</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3054</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="5" t="s">
+        <v>3056</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3053</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
         <f>VLOOKUP(A3,Прайс[[Номенклатура]:[Цена]],2,0)</f>
-        <v>20400</v>
-      </c>
-      <c r="C3" s="5" t="str">
+        <v>4500</v>
+      </c>
+      <c r="C3" s="4" t="str">
         <f>LOOKUP(A3,'Прайс-лист'!B:B,'Прайс-лист'!A:A)</f>
-        <v>Ноутбуки</v>
+        <v>Мониторы</v>
       </c>
       <c r="D3" t="str">
         <f>_xlfn.XLOOKUP(A3,'Прайс-лист'!B:B,'Прайс-лист'!A:A,"Без категории")</f>
-        <v>Ноутбуки</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Мониторы</v>
+      </c>
+      <c r="E3" s="10" t="str">
+        <f>INDEX('Прайс-лист'!A:A,MATCH(A3,'Прайс-лист'!B:B,0))</f>
+        <v>Мониторы</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2789</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>VLOOKUP(A4,Прайс[[Номенклатура]:[Цена]],2,0)</f>
         <v>199300</v>
       </c>
-      <c r="C4" s="5" t="str">
+      <c r="C4" s="4" t="str">
         <f>LOOKUP(A4,'Прайс-лист'!B:B,'Прайс-лист'!A:A)</f>
         <v>Ноутбуки</v>
       </c>
@@ -43835,36 +43872,50 @@
         <f>_xlfn.XLOOKUP(A4,'Прайс-лист'!B:B,'Прайс-лист'!A:A,"Без категории")</f>
         <v>Ноутбуки</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="9" t="str">
+        <f>INDEX('Прайс-лист'!A:A,MATCH(A4,'Прайс-лист'!B:B,0))</f>
+        <v>Ноутбуки</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3056</v>
-      </c>
-      <c r="B5" s="5" t="e">
+        <v>3013</v>
+      </c>
+      <c r="B5" s="4">
         <f>VLOOKUP(A5,Прайс[[Номенклатура]:[Цена]],2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C5" s="5" t="str">
+        <v>195200</v>
+      </c>
+      <c r="C5" s="4" t="str">
         <f>LOOKUP(A5,'Прайс-лист'!B:B,'Прайс-лист'!A:A)</f>
         <v>Ноутбуки</v>
       </c>
       <c r="D5" t="str">
         <f>_xlfn.XLOOKUP(A5,'Прайс-лист'!B:B,'Прайс-лист'!A:A,"Без категории")</f>
-        <v>Без категории</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>Ноутбуки</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f>INDEX('Прайс-лист'!A:A,MATCH(A5,'Прайс-лист'!B:B,0))</f>
+        <v>Ноутбуки</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
